--- a/biology/Botanique/Aegle_marmelos/Aegle_marmelos.xlsx
+++ b/biology/Botanique/Aegle_marmelos/Aegle_marmelos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Maja ou Bael (Aegle marmelos) (Bengali বেল) (Hindi:बिल्व) est un arbre aromatique et épineux de taille moyenne. Cet arbre fruitier est l'unique espèce du genre Aegle, de la famille des Rutaceae.
 L'arbre porte plusieurs noms communs fruit de Beli, Coing du Bengale, Orange-miel, Vilvon etc.
 Il est appelé Bilva, Bilwa, Bel, Kuvalam, Madtoum en Inde.
-Il possède aussi plusieurs dénomination en Sanscrit : Bilva, Śalātu, Hṛdyagandha, Karkaṭa, Samirasāraka, Śivadruma, Triśikha, Śiveṣhṭa, Dūrāruha, Lakṣmī phala, Śalya, Mahākapithya etc[1].
+Il possède aussi plusieurs dénomination en Sanscrit : Bilva, Śalātu, Hṛdyagandha, Karkaṭa, Samirasāraka, Śivadruma, Triśikha, Śiveṣhṭa, Dūrāruha, Lakṣmī phala, Śalya, Mahākapithya etc.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre pousse naturellement dans les forêts tropicales sèches des plaines et des collines à une altitude de 250 à 1 200 m au sud et au centre de l’Inde, en Birmanie, au Pakistan et au Bangladesh. Il est présent également au sud du Népal, au Sri Lanka, et dans les forêts mixtes de diptérocarpes de la péninsule indochinoise (Myanmar, Viêt Nam, Laos, Cambodge, Thaïlande).
 Il est assez largement cultivé en Inde, principalement près des temples à cause de son statut d'arbre sacré du dieu Shiva. Des mentions écrites de sa culture remontent à 800 av. J.-C. Il est également cultivé au Sri Lanka, au nord de la péninsule Malaise, à Java et aux Philippines depuis le XVIIIe siècle. On peut aussi le voir dans quelques jardins en Égypte, au Surinam et sur l'île de la Trinité. Plusieurs spécimens sont maintenus à travers le monde dans les collections de Citrus.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bael est un arbre à croissance lente d'une taille de 8-12 m mais pouvant occasionnellement  atteindre 18 mètres de haut. Son tronc est assez court et mince. Son port est assez ouvert avec des branches courtes portant de nombreuses épines de plus de 3 cm de long à la base des feuilles. Les branches du bas s'élaguent naturellement. Les jeunes rameaux portent de nombreuses épines droites.
 L'écorce est gris bleuté se détachant en plaques.
@@ -560,8 +576,43 @@
 Les rameaux normaux ont des intervalles nodaux de 3-5 cm et portent des feuilles normalement développées à chaque nœud souvent avec une ou deux épines.
 Les rameaux courts sont très courts, 1-3 cm, ne portent aucune épine et ont de très nombreux nœuds chacun avec une feuille, celles de la base très petites et celles de l'extrémité à très long pétioles.
 L'espèce est diploïde avec un nombre chromosomique de 2n=18
-Variétés
-Usuellement propagé par semis, l'arbre présente naturellement une forte variabilité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aegle_marmelos</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aegle_marmelos</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Usuellement propagé par semis, l'arbre présente naturellement une forte variabilité.
 Douze variétés et cultivars fixés ont été répertoriés en Inde :
 'Kaghzi' - très estimé il a de gros fruits avec une coque fine et peu de graines
 'Mitzapuri' - un des meilleurs avec une coque très fine, une pulpe de très bonne texture et de très bonne saveur. Il a peu de graines et est dépourvu de gomme
@@ -579,31 +630,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Aegle_marmelos</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aegle_marmelos</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aegle_marmelos</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aegle_marmelos</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il exige une saison sèche prolongée pour fructifier. Par exemple il ne porte pas de fruit au sud de la Malaisie.
 Il supporte tous types de sol depuis les sols saturés d'eaux jusqu'aux sol secs, de pH 5 à 8, sols riches et profonds aussi bien que pauvres et rocheux ou argileux. En Inde, on dit qu'il pousse là ou aucun autre arbre ne peut vivre.
@@ -621,33 +674,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Aegle_marmelos</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aegle_marmelos</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aegle_marmelos</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aegle_marmelos</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit peut être consommé frais ou après avoir été séché.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le fruit peut être consommé frais ou après avoir été séché.
 En frais, la pulpe est consommée directement ou mélangée à du sucre. Elle est surtout consommée en jus extrait par dilution de la pulpe avec de l'eau et du sucre parfois avec du tamarin. Elle est aussi l’un des ingrédients du sharbat, une boisson rafraîchissante dans laquelle la pulpe est mélangée à du lait et du sucre, parfois du jus de citron vert.
 De la confiture, du sirop, de la gelée et des pickles sont aussi préparés avec la pulpe des fruits pas tout à fait mûrs.
 Pour être séché, le fruit peut être coupé en tranches puis exposé au soleil ou bien la pâte de pulpe est additionnée de sulfites, mêlée à 30 % de sucre puis déshydratée à 50 °C et pulvérisée avec adjonction d'acide ascorbique. Cette poudre est ensuite utilisée pour confectionner des boissons.
@@ -666,77 +721,115 @@
 Riboflavine 1,19 mg
 Niacine 1,1 mg
 Acide ascorbique 900 mg
-Une coumarine qui a été isolée pour la première fois dans l'écorce de Aegle marmelos Correa, la marmin[2],[3]. Elle a été synthétisée en 1970 et est également présente dans les racines de la plante et dans la fleur de Citrus maxima[4],[5].  La Marmin présente in vitro un effet hypolipidémiant, autrement dit anti-obésité, grâce à son excellente activité anti-proliférative sur les préadipocytes 3T3-L1 dont elle provoque l'apoptose [6].
+Une coumarine qui a été isolée pour la première fois dans l'écorce de Aegle marmelos Correa, la marmin,. Elle a été synthétisée en 1970 et est également présente dans les racines de la plante et dans la fleur de Citrus maxima,.  La Marmin présente in vitro un effet hypolipidémiant, autrement dit anti-obésité, grâce à son excellente activité anti-proliférative sur les préadipocytes 3T3-L1 dont elle provoque l'apoptose .
 L'infusion de fleurs sert aussi à la préparation d'une boisson rafraîchissante.
 En Thaïlande et Indonésie, les feuilles et les jeunes pousses seraient consommées comme légumes.
-Il a de multiples usages thérapeutiques traditionnels : La pulpe séchée sert à l'infusion d'une tisane utilisées contre la diarrhée et la dysenterie[7].
+Il a de multiples usages thérapeutiques traditionnels : La pulpe séchée sert à l'infusion d'une tisane utilisées contre la diarrhée et la dysenterie.
 L'arbre est la plante nourricière des deux lépidoptères de la famille des papilionidés indiens suivant : 
 Papilio demoleus
-Papilio polytes
-Utilisation dans les rituels religieux
-Le fruit est également utilisé dans les rituels religieux et comme un remède ayurvédique aux maladies comme la diarrhée, la dysenterie, les parasitoses intestinales, la sécheresse des yeux, et le rhume. C'est un antidote très efficace contre la constipation chronique.
+Papilio polytes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aegle_marmelos</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aegle_marmelos</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Utilisation dans les rituels religieux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est également utilisé dans les rituels religieux et comme un remède ayurvédique aux maladies comme la diarrhée, la dysenterie, les parasitoses intestinales, la sécheresse des yeux, et le rhume. C'est un antidote très efficace contre la constipation chronique.
 Dans la religion Hindou, il est dit que chaque jour la déesse Lakshmi cueille mille fleurs pour les offrir le soir à une statue de Shiva. Un jour, elle s'aperçut qu’il lui en manquait deux. Il était trop tard pour en cueillir d’autres car le soir était venu et les lotus s’étaient refermés pour la nuit. Elle se rappela que Vishnu avait une fois comparé sa poitrine à des lotus éclos. Elle décida donc de les offrir en remplacement des deux fleurs manquantes. Lakshmi ôta l’un de ses seins et le plaça sur l’autel avec les autres fleurs. Avant qu’elle ne s’ôte le second, Shiva, qui était très ému par tant de dévotion, apparut derrière elle et lui demanda d’arrêter. Le dieu transforma alors le sein en fruit de Bael et l’envoya sur terre avec sa bénédiction pour qu’il fleurisse près des temples. 
 Traditionnellement au Népal, l’arbre de Bael occupe une place importante dans le rituel féminin de fertilité connu sous le nom de Bel baha.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Aegle_marmelos</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aegle_marmelos</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aegle_marmelos</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aegle_marmelos</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Danger</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de la saison de maturité des fruits, il convient de prendre garde à la chute de ces derniers qui sont durs et relativement lourds et peuvent blesser les personnes ou endommager les objets ou véhicules se trouvant en dessous.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Aegle_marmelos</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aegle_marmelos</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aegle_marmelos</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aegle_marmelos</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Images</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Jeune plant cultivé en pot, Jardin botanique de la reine Sirikit, Thaïlande
@@ -747,31 +840,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Aegle_marmelos</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aegle_marmelos</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aegle_marmelos</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aegle_marmelos</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Bael » (voir la liste des auteurs).</t>
         </is>
